--- a/Computational_Data/Overview_Energies/DFT_CASSCF_Comparison.xlsx
+++ b/Computational_Data/Overview_Energies/DFT_CASSCF_Comparison.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jacob/Documents/Water_Splitting/Two_Photon_Water_Splitting/Computational_Data/Overview_Energies/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4B8A33-2CF1-354D-A413-A2D05635FFE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="1320" windowWidth="20480" windowHeight="12200" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="20480" windowHeight="12200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -51,12 +57,6 @@
     <t>[C-Mono]D_0 (Me Model)</t>
   </si>
   <si>
-    <t>Relative Energy / kcal/mol (SMD)</t>
-  </si>
-  <si>
-    <t>Relative Energy / kcal/mol (Gas Phase)</t>
-  </si>
-  <si>
     <t>DFT</t>
   </si>
   <si>
@@ -69,9 +69,6 @@
     <t>Energy / Hartree (PCM)</t>
   </si>
   <si>
-    <t>Relative Energy / kcal/mol (PCM)</t>
-  </si>
-  <si>
     <t>G-Cis-Mono-D-0-GPOF</t>
   </si>
   <si>
@@ -118,12 +115,21 @@
   </si>
   <si>
     <t>933,33; 538,70</t>
+  </si>
+  <si>
+    <t>Relative Energy / kJ/mol (Gas Phase)</t>
+  </si>
+  <si>
+    <t>Relative Energy / kJ/mol (SMD)</t>
+  </si>
+  <si>
+    <t>Relative Energy / kJ/mol (PCM)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -192,6 +198,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -516,24 +530,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -553,42 +567,42 @@
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5">
         <v>-3109.9366064599999</v>
@@ -603,15 +617,15 @@
         <v>1.008993</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3">
         <v>-1554.3405153199999</v>
@@ -627,12 +641,12 @@
         <v>0.48144999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -643,13 +657,13 @@
         <v>0.26378699999999999</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M5" s="5">
         <v>-5668.7151324200004</v>
@@ -661,12 +675,12 @@
         <v>482.26443999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" s="5">
         <v>-3109.8762130800001</v>
@@ -681,20 +695,20 @@
         <v>1.005816</v>
       </c>
       <c r="G6">
-        <f>(E6-E3)*627.5095</f>
-        <v>35.008755005215136</v>
+        <f>(E6-E3)*2625.5</f>
+        <v>146.47664500090013</v>
       </c>
       <c r="H6">
-        <f>(D6-D3)*627.5095</f>
-        <v>35.903822005467227</v>
+        <f>(D6-D3)*2625.5</f>
+        <v>150.22160568940262</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -705,16 +719,16 @@
         <v>0.47968699999999997</v>
       </c>
       <c r="G7">
-        <f>(E7-E4)*627.5095</f>
-        <v>33.517792432984443</v>
+        <f>(E7-E4)*2625.5</f>
+        <v>140.2384569999349</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -725,11 +739,11 @@
         <v>0.26307199999999997</v>
       </c>
       <c r="G8">
-        <f>(E8-E5)*627.5095</f>
-        <v>31.918898227026244</v>
+        <f>(E8-E5)*2625.5</f>
+        <v>133.5486830001098</v>
       </c>
       <c r="L8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M8" s="5">
         <v>-5668.6676188499996</v>
@@ -738,12 +752,12 @@
         <v>-5668.7043783600002</v>
       </c>
       <c r="O8">
-        <f>(M8-M5)*627.5095</f>
-        <v>29.815216554400724</v>
+        <f>(M8-M5)*2625.5</f>
+        <v>124.74687803703227</v>
       </c>
       <c r="P8">
-        <f>(N8-N5)*627.5095</f>
-        <v>36.30126769766229</v>
+        <f>(N8-N5)*2625.5</f>
+        <v>151.88451862515603</v>
       </c>
     </row>
   </sheetData>
